--- a/09_IMA/MORGAN/Results/results_RQ2/HEPSYCODE/results_RQ2_attrs.xlsx
+++ b/09_IMA/MORGAN/Results/results_RQ2/HEPSYCODE/results_RQ2_attrs.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vitto\Desktop\github\modelingOperationRec_ASE\IMA\results_RQ2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vitto\Desktop\github\modelingOperationRec_IST\09_IMA\MORGAN\Results\results_RQ2\HEPSYCODE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00F4ED0E-9A1E-458F-90F6-4F0BB6F59A87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8B7AE34-B74B-438C-B443-A6152B11F13A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="47">
   <si>
     <t>dataset</t>
   </si>
@@ -82,6 +82,90 @@
   </si>
   <si>
     <t>Mixed</t>
+  </si>
+  <si>
+    <t>group</t>
+  </si>
+  <si>
+    <t>D2-C.1.1</t>
+  </si>
+  <si>
+    <t>D2-C.2.1</t>
+  </si>
+  <si>
+    <t>D2-C.3.1</t>
+  </si>
+  <si>
+    <t>D2-C.1.2</t>
+  </si>
+  <si>
+    <t>D2-C.2.2</t>
+  </si>
+  <si>
+    <t>D2-C.3.2</t>
+  </si>
+  <si>
+    <t>D2-C.1.3</t>
+  </si>
+  <si>
+    <t>D2-C.2.3</t>
+  </si>
+  <si>
+    <t>D2-C.3.3</t>
+  </si>
+  <si>
+    <t>D1-C.1.1</t>
+  </si>
+  <si>
+    <t>D1-C.2.1</t>
+  </si>
+  <si>
+    <t>D1-C.3.1</t>
+  </si>
+  <si>
+    <t>D1-C.1.2</t>
+  </si>
+  <si>
+    <t>D1-C.2.2</t>
+  </si>
+  <si>
+    <t>D1-C.3.2</t>
+  </si>
+  <si>
+    <t>D1-C.1.3</t>
+  </si>
+  <si>
+    <t>D1-C.2.3</t>
+  </si>
+  <si>
+    <t>D1-C.3.3</t>
+  </si>
+  <si>
+    <t>Dm05-C.1.1</t>
+  </si>
+  <si>
+    <t>Dm05-C.2.1</t>
+  </si>
+  <si>
+    <t>Dm05-C.3.1</t>
+  </si>
+  <si>
+    <t>Dm05-C.1.2</t>
+  </si>
+  <si>
+    <t>Dm05-C.2.2</t>
+  </si>
+  <si>
+    <t>Dm05-C.3.2</t>
+  </si>
+  <si>
+    <t>Dm05-C.1.3</t>
+  </si>
+  <si>
+    <t>Dm05-C.2.3</t>
+  </si>
+  <si>
+    <t>Dm05-C.3.3</t>
   </si>
 </sst>
 </file>
@@ -399,10 +483,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J136"/>
+  <dimension ref="A1:K136"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K135" sqref="K135"/>
+    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -411,11 +495,12 @@
     <col min="3" max="3" width="7.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="10" width="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -432,22 +517,25 @@
         <v>3</v>
       </c>
       <c r="F1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -463,23 +551,26 @@
       <c r="E2" t="s">
         <v>9</v>
       </c>
-      <c r="F2">
+      <c r="F2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2">
         <v>26.190476190476101</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>14.375</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>13.7617993861864</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>8.6964760507855995E-2</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>17.024335077830699</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -495,23 +586,26 @@
       <c r="E3" t="s">
         <v>10</v>
       </c>
-      <c r="F3">
+      <c r="F3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3">
         <v>33.3333333333333</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>12.983861549078901</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>16.584804084803999</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>8.7239885330200106E-2</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>20.816985766092898</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -527,23 +621,26 @@
       <c r="E4" t="s">
         <v>11</v>
       </c>
-      <c r="F4">
+      <c r="F4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4">
         <v>19.999999999999901</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>8.9892961444685593</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>10.430639730639699</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>9.43403561909993E-2</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>25.213142204284601</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -559,23 +656,26 @@
       <c r="E5" t="s">
         <v>12</v>
       </c>
-      <c r="F5">
+      <c r="F5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5">
         <v>13.3333333333333</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>4.4074074074074003</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>6.3982560649227302</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>8.4618028004964194E-2</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>15.575936921437499</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -591,23 +691,26 @@
       <c r="E6" t="s">
         <v>13</v>
       </c>
-      <c r="F6">
+      <c r="F6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6">
         <v>17.7777777777777</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>6.6801346801346799</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>9.3854293854293793</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>8.6999861399332606E-2</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>10.8761139551798</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -623,23 +726,26 @@
       <c r="E7" t="s">
         <v>9</v>
       </c>
-      <c r="F7">
+      <c r="F7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7">
         <v>24.285714285714199</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>18.815708101422299</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>17.3366013071895</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>8.8468773024422701E-2</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>16.608805077416498</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -655,23 +761,26 @@
       <c r="E8" t="s">
         <v>10</v>
       </c>
-      <c r="F8">
+      <c r="F8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8">
         <v>36</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>25.099807599807502</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>24.7462301487069</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>8.6717716852823895E-2</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>23.194429636001502</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -687,23 +796,26 @@
       <c r="E9" t="s">
         <v>11</v>
       </c>
-      <c r="F9">
+      <c r="F9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9">
         <v>25.3333333333333</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>10.601909581036701</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>13.617197617197601</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>8.8556830088297497E-2</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>25.397733100255302</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -719,23 +831,26 @@
       <c r="E10" t="s">
         <v>12</v>
       </c>
-      <c r="F10">
+      <c r="F10" t="s">
+        <v>21</v>
+      </c>
+      <c r="G10">
         <v>30.6666666666666</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>20.940780352545001</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>20.739357305920699</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>8.3888626098632804E-2</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>22.052439181009898</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -751,23 +866,26 @@
       <c r="E11" t="s">
         <v>13</v>
       </c>
-      <c r="F11">
+      <c r="F11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G11">
         <v>28</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>15.2126739145372</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>17.8771138084863</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>9.1699981689453106E-2</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>21.6698742230733</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -783,23 +901,26 @@
       <c r="E12" t="s">
         <v>9</v>
       </c>
-      <c r="F12">
+      <c r="F12" t="s">
+        <v>22</v>
+      </c>
+      <c r="G12">
         <v>27.1428571428571</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>21.466285907075299</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>22.823190802201299</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>8.9057173047746893E-2</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>19.101726770401001</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -815,23 +936,26 @@
       <c r="E13" t="s">
         <v>10</v>
       </c>
-      <c r="F13">
+      <c r="F13" t="s">
+        <v>22</v>
+      </c>
+      <c r="G13">
         <v>24.6666666666666</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>30.328564028563999</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>23.458464827774201</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>8.8182894388834601E-2</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>26.405912558237699</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -847,23 +971,26 @@
       <c r="E14" t="s">
         <v>11</v>
       </c>
-      <c r="F14">
+      <c r="F14" t="s">
+        <v>22</v>
+      </c>
+      <c r="G14">
         <v>24</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>24.324140835010301</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>20.5270536364423</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>8.4468205769856697E-2</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>23.4572612444559</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -879,23 +1006,26 @@
       <c r="E15" t="s">
         <v>12</v>
       </c>
-      <c r="F15">
+      <c r="F15" t="s">
+        <v>22</v>
+      </c>
+      <c r="G15">
         <v>25.3333333333333</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>29.485969060272399</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>22.679981799838799</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>5.0778532028198202E-2</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>12.1951321760813</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -911,23 +1041,26 @@
       <c r="E16" t="s">
         <v>13</v>
       </c>
-      <c r="F16">
+      <c r="F16" t="s">
+        <v>22</v>
+      </c>
+      <c r="G16">
         <v>25.3333333333333</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>30.3084967320261</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>24.173604173604101</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>4.6033159891764298E-2</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>9.5218881130218502</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -943,23 +1076,26 @@
       <c r="E17" t="s">
         <v>9</v>
       </c>
-      <c r="F17">
+      <c r="F17" t="s">
+        <v>23</v>
+      </c>
+      <c r="G17">
         <v>33.3333333333333</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>10.4237528344671</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>13.019268313385901</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>8.7069800921848794E-2</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>8.2283445766993903</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -975,23 +1111,26 @@
       <c r="E18" t="s">
         <v>10</v>
       </c>
-      <c r="F18">
+      <c r="F18" t="s">
+        <v>23</v>
+      </c>
+      <c r="G18">
         <v>23.8095238095238</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>12.5000804919669</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>10.8586056800342</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>8.3375198500497003E-2</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>6.3005190917423697</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -1007,23 +1146,26 @@
       <c r="E19" t="s">
         <v>11</v>
       </c>
-      <c r="F19">
+      <c r="F19" t="s">
+        <v>23</v>
+      </c>
+      <c r="G19">
         <v>19.999999999999901</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>7.0563934975699603</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>8.5157026436096199</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>8.3043225606282495E-2</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>9.7373551845550494</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>16</v>
       </c>
@@ -1039,23 +1181,26 @@
       <c r="E20" t="s">
         <v>12</v>
       </c>
-      <c r="F20">
+      <c r="F20" t="s">
+        <v>23</v>
+      </c>
+      <c r="G20">
         <v>26.6666666666666</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>7.2602633354588004</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>8.9513040480782404</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>9.3468507130940695E-2</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>6.6069143454233803</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>16</v>
       </c>
@@ -1071,23 +1216,26 @@
       <c r="E21" t="s">
         <v>13</v>
       </c>
-      <c r="F21">
+      <c r="F21" t="s">
+        <v>23</v>
+      </c>
+      <c r="G21">
         <v>22.2222222222222</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>5.9443947865000499</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>6.6456204683155002</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>8.6985905965169197E-2</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <v>10.994887177149399</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>16</v>
       </c>
@@ -1103,23 +1251,26 @@
       <c r="E22" t="s">
         <v>9</v>
       </c>
-      <c r="F22">
+      <c r="F22" t="s">
+        <v>24</v>
+      </c>
+      <c r="G22">
         <v>27.1428571428571</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>7.8071083505866099</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <v>10.649465583334701</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <v>8.1140143530709405E-2</v>
       </c>
-      <c r="J22">
+      <c r="K22">
         <v>8.3332942724227905</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>16</v>
       </c>
@@ -1135,23 +1286,26 @@
       <c r="E23" t="s">
         <v>10</v>
       </c>
-      <c r="F23">
+      <c r="F23" t="s">
+        <v>24</v>
+      </c>
+      <c r="G23">
         <v>32.857142857142797</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>10.316854014333</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <v>12.81716461459</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <v>9.7085050174168103E-2</v>
       </c>
-      <c r="J23">
+      <c r="K23">
         <v>11.3266837426594</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>16</v>
       </c>
@@ -1167,23 +1321,26 @@
       <c r="E24" t="s">
         <v>11</v>
       </c>
-      <c r="F24">
+      <c r="F24" t="s">
+        <v>24</v>
+      </c>
+      <c r="G24">
         <v>34.6666666666666</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>19.0825262366155</v>
       </c>
-      <c r="H24">
+      <c r="I24">
         <v>18.013935148842801</v>
       </c>
-      <c r="I24">
+      <c r="J24">
         <v>9.52947775522867E-2</v>
       </c>
-      <c r="J24">
+      <c r="K24">
         <v>12.1306381702423</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>16</v>
       </c>
@@ -1199,23 +1356,26 @@
       <c r="E25" t="s">
         <v>12</v>
       </c>
-      <c r="F25">
+      <c r="F25" t="s">
+        <v>24</v>
+      </c>
+      <c r="G25">
         <v>21.3333333333333</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>5.3329263329263297</v>
       </c>
-      <c r="H25">
+      <c r="I25">
         <v>7.3832442067736102</v>
       </c>
-      <c r="I25">
+      <c r="J25">
         <v>8.9947017033894794E-2</v>
       </c>
-      <c r="J25">
+      <c r="K25">
         <v>12.1932232538859</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>16</v>
       </c>
@@ -1231,23 +1391,26 @@
       <c r="E26" t="s">
         <v>13</v>
       </c>
-      <c r="F26">
+      <c r="F26" t="s">
+        <v>24</v>
+      </c>
+      <c r="G26">
         <v>18.6666666666666</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <v>3.6265638167812</v>
       </c>
-      <c r="H26">
+      <c r="I26">
         <v>5.9723589135353796</v>
       </c>
-      <c r="I26">
+      <c r="J26">
         <v>9.2472887039184506E-2</v>
       </c>
-      <c r="J26">
+      <c r="K26">
         <v>8.87087098757425</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>16</v>
       </c>
@@ -1263,23 +1426,26 @@
       <c r="E27" t="s">
         <v>9</v>
       </c>
-      <c r="F27">
+      <c r="F27" t="s">
+        <v>25</v>
+      </c>
+      <c r="G27">
         <v>32.857142857142797</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <v>16.778354486956001</v>
       </c>
-      <c r="H27">
+      <c r="I27">
         <v>19.075308763257102</v>
       </c>
-      <c r="I27">
+      <c r="J27">
         <v>9.1255290167672296E-2</v>
       </c>
-      <c r="J27">
+      <c r="K27">
         <v>11.5131235633577</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>16</v>
       </c>
@@ -1295,23 +1461,26 @@
       <c r="E28" t="s">
         <v>10</v>
       </c>
-      <c r="F28">
+      <c r="F28" t="s">
+        <v>25</v>
+      </c>
+      <c r="G28">
         <v>23.3333333333333</v>
       </c>
-      <c r="G28">
+      <c r="H28">
         <v>14.040598290598201</v>
       </c>
-      <c r="H28">
+      <c r="I28">
         <v>16.088237812607499</v>
       </c>
-      <c r="I28">
+      <c r="J28">
         <v>8.9899905522664303E-2</v>
       </c>
-      <c r="J28">
+      <c r="K28">
         <v>10.956296364466301</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>16</v>
       </c>
@@ -1327,23 +1496,26 @@
       <c r="E29" t="s">
         <v>11</v>
       </c>
-      <c r="F29">
+      <c r="F29" t="s">
+        <v>25</v>
+      </c>
+      <c r="G29">
         <v>26</v>
       </c>
-      <c r="G29">
+      <c r="H29">
         <v>18.672839506172799</v>
       </c>
-      <c r="H29">
+      <c r="I29">
         <v>16.3232122787295</v>
       </c>
-      <c r="I29">
+      <c r="J29">
         <v>9.4369125366210893E-2</v>
       </c>
-      <c r="J29">
+      <c r="K29">
         <v>13.002866888046199</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>16</v>
       </c>
@@ -1359,23 +1531,26 @@
       <c r="E30" t="s">
         <v>12</v>
       </c>
-      <c r="F30">
+      <c r="F30" t="s">
+        <v>25</v>
+      </c>
+      <c r="G30">
         <v>24</v>
       </c>
-      <c r="G30">
+      <c r="H30">
         <v>16.6285281758149</v>
       </c>
-      <c r="H30">
+      <c r="I30">
         <v>13.6725665734002</v>
       </c>
-      <c r="I30">
+      <c r="J30">
         <v>8.9114936192830396E-2</v>
       </c>
-      <c r="J30">
+      <c r="K30">
         <v>11.7951425234476</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>16</v>
       </c>
@@ -1391,23 +1566,26 @@
       <c r="E31" t="s">
         <v>13</v>
       </c>
-      <c r="F31">
+      <c r="F31" t="s">
+        <v>25</v>
+      </c>
+      <c r="G31">
         <v>22.6666666666666</v>
       </c>
-      <c r="G31">
+      <c r="H31">
         <v>11.995101418476001</v>
       </c>
-      <c r="H31">
+      <c r="I31">
         <v>14.9587701502732</v>
       </c>
-      <c r="I31">
+      <c r="J31">
         <v>8.8630994160970006E-2</v>
       </c>
-      <c r="J31">
+      <c r="K31">
         <v>8.1137602329254097</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>16</v>
       </c>
@@ -1423,23 +1601,26 @@
       <c r="E32" t="s">
         <v>9</v>
       </c>
-      <c r="F32">
+      <c r="F32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G32">
         <v>53.846153846153797</v>
       </c>
-      <c r="G32">
+      <c r="H32">
         <v>4.37654364119172</v>
       </c>
-      <c r="H32">
+      <c r="I32">
         <v>7.4857127199733098</v>
       </c>
-      <c r="I32">
+      <c r="J32">
         <v>8.2403219663179803E-2</v>
       </c>
-      <c r="J32">
+      <c r="K32">
         <v>6.6752596084888101</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>16</v>
       </c>
@@ -1455,23 +1636,26 @@
       <c r="E33" t="s">
         <v>10</v>
       </c>
-      <c r="F33">
+      <c r="F33" t="s">
+        <v>26</v>
+      </c>
+      <c r="G33">
         <v>44.4444444444444</v>
       </c>
-      <c r="G33">
+      <c r="H33">
         <v>5.9031823521190798</v>
       </c>
-      <c r="H33">
+      <c r="I33">
         <v>9.4131260384238704</v>
       </c>
-      <c r="I33">
+      <c r="J33">
         <v>7.8437368075052902E-2</v>
       </c>
-      <c r="J33">
+      <c r="K33">
         <v>8.53470895687739</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>16</v>
       </c>
@@ -1487,23 +1671,26 @@
       <c r="E34" t="s">
         <v>11</v>
       </c>
-      <c r="F34">
+      <c r="F34" t="s">
+        <v>26</v>
+      </c>
+      <c r="G34">
         <v>49.999999999999901</v>
       </c>
-      <c r="G34">
+      <c r="H34">
         <v>6.9227039834900799</v>
       </c>
-      <c r="H34">
+      <c r="I34">
         <v>10.205612781386201</v>
       </c>
-      <c r="I34">
+      <c r="J34">
         <v>7.6506648744855604E-2</v>
       </c>
-      <c r="J34">
+      <c r="K34">
         <v>7.6608184916632496</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>16</v>
       </c>
@@ -1519,23 +1706,26 @@
       <c r="E35" t="s">
         <v>12</v>
       </c>
-      <c r="F35">
+      <c r="F35" t="s">
+        <v>26</v>
+      </c>
+      <c r="G35">
         <v>52.380952380952301</v>
       </c>
-      <c r="G35">
+      <c r="H35">
         <v>4.2511863603454003</v>
       </c>
-      <c r="H35">
+      <c r="I35">
         <v>7.4727758845540597</v>
       </c>
-      <c r="I35">
+      <c r="J35">
         <v>8.9566826820373494E-2</v>
       </c>
-      <c r="J35">
+      <c r="K35">
         <v>8.35486076559339</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>16</v>
       </c>
@@ -1551,23 +1741,26 @@
       <c r="E36" t="s">
         <v>13</v>
       </c>
-      <c r="F36">
+      <c r="F36" t="s">
+        <v>26</v>
+      </c>
+      <c r="G36">
         <v>60</v>
       </c>
-      <c r="G36">
+      <c r="H36">
         <v>5.99463353353761</v>
       </c>
-      <c r="H36">
+      <c r="I36">
         <v>9.92920036039928</v>
       </c>
-      <c r="I36">
+      <c r="J36">
         <v>9.2252985636393198E-2</v>
       </c>
-      <c r="J36">
+      <c r="K36">
         <v>7.7437194506327298</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>16</v>
       </c>
@@ -1583,23 +1776,26 @@
       <c r="E37" t="s">
         <v>9</v>
       </c>
-      <c r="F37">
+      <c r="F37" t="s">
+        <v>27</v>
+      </c>
+      <c r="G37">
         <v>38.461538461538403</v>
       </c>
-      <c r="G37">
+      <c r="H37">
         <v>16.5981887054818</v>
       </c>
-      <c r="H37">
+      <c r="I37">
         <v>19.978516441697899</v>
       </c>
-      <c r="I37">
+      <c r="J37">
         <v>8.6476509387676495E-2</v>
       </c>
-      <c r="J37">
+      <c r="K37">
         <v>3.4023063182830802</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>16</v>
       </c>
@@ -1615,23 +1811,26 @@
       <c r="E38" t="s">
         <v>10</v>
       </c>
-      <c r="F38">
+      <c r="F38" t="s">
+        <v>27</v>
+      </c>
+      <c r="G38">
         <v>44.285714285714199</v>
       </c>
-      <c r="G38">
+      <c r="H38">
         <v>16.228513990569301</v>
       </c>
-      <c r="H38">
+      <c r="I38">
         <v>19.970688199118101</v>
       </c>
-      <c r="I38">
+      <c r="J38">
         <v>8.0033915383475096E-2</v>
       </c>
-      <c r="J38">
+      <c r="K38">
         <v>3.9434544018336699</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>16</v>
       </c>
@@ -1647,23 +1846,26 @@
       <c r="E39" t="s">
         <v>11</v>
       </c>
-      <c r="F39">
+      <c r="F39" t="s">
+        <v>27</v>
+      </c>
+      <c r="G39">
         <v>41.428571428571402</v>
       </c>
-      <c r="G39">
+      <c r="H39">
         <v>14.349286330018799</v>
       </c>
-      <c r="H39">
+      <c r="I39">
         <v>17.911502961336801</v>
       </c>
-      <c r="I39">
+      <c r="J39">
         <v>8.3845189639500203E-2</v>
       </c>
-      <c r="J39">
+      <c r="K39">
         <v>3.5587959459849698</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>16</v>
       </c>
@@ -1679,23 +1881,26 @@
       <c r="E40" t="s">
         <v>12</v>
       </c>
-      <c r="F40">
+      <c r="F40" t="s">
+        <v>27</v>
+      </c>
+      <c r="G40">
         <v>44.285714285714199</v>
       </c>
-      <c r="G40">
+      <c r="H40">
         <v>15.601974813477501</v>
       </c>
-      <c r="H40">
+      <c r="I40">
         <v>20.393233354335202</v>
       </c>
-      <c r="I40">
+      <c r="J40">
         <v>7.6983536992754203E-2</v>
       </c>
-      <c r="J40">
+      <c r="K40">
         <v>4.5922320570264503</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>16</v>
       </c>
@@ -1711,23 +1916,26 @@
       <c r="E41" t="s">
         <v>13</v>
       </c>
-      <c r="F41">
+      <c r="F41" t="s">
+        <v>27</v>
+      </c>
+      <c r="G41">
         <v>42.6666666666666</v>
       </c>
-      <c r="G41">
+      <c r="H41">
         <v>17.155992155992099</v>
       </c>
-      <c r="H41">
+      <c r="I41">
         <v>22.256009304306499</v>
       </c>
-      <c r="I41">
+      <c r="J41">
         <v>9.5045598347981694E-2</v>
       </c>
-      <c r="J41">
+      <c r="K41">
         <v>4.2578098456064799</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>16</v>
       </c>
@@ -1743,23 +1951,26 @@
       <c r="E42" t="s">
         <v>9</v>
       </c>
-      <c r="F42">
+      <c r="F42" t="s">
+        <v>28</v>
+      </c>
+      <c r="G42">
         <v>27.857142857142801</v>
       </c>
-      <c r="G42">
+      <c r="H42">
         <v>16.827602076771502</v>
       </c>
-      <c r="H42">
+      <c r="I42">
         <v>17.368932861441099</v>
       </c>
-      <c r="I42">
+      <c r="J42">
         <v>8.7494662829807807E-2</v>
       </c>
-      <c r="J42">
+      <c r="K42">
         <v>2.4660274471555401</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>16</v>
       </c>
@@ -1775,23 +1986,26 @@
       <c r="E43" t="s">
         <v>10</v>
       </c>
-      <c r="F43">
+      <c r="F43" t="s">
+        <v>28</v>
+      </c>
+      <c r="G43">
         <v>25.714285714285701</v>
       </c>
-      <c r="G43">
+      <c r="H43">
         <v>14.1024495689181</v>
       </c>
-      <c r="H43">
+      <c r="I43">
         <v>15.091026490560701</v>
       </c>
-      <c r="I43">
+      <c r="J43">
         <v>8.0861806869506794E-2</v>
       </c>
-      <c r="J43">
+      <c r="K43">
         <v>3.5496099506105598</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>16</v>
       </c>
@@ -1807,23 +2021,26 @@
       <c r="E44" t="s">
         <v>11</v>
       </c>
-      <c r="F44">
+      <c r="F44" t="s">
+        <v>28</v>
+      </c>
+      <c r="G44">
         <v>24.6666666666666</v>
       </c>
-      <c r="G44">
+      <c r="H44">
         <v>14.068665377176</v>
       </c>
-      <c r="H44">
+      <c r="I44">
         <v>13.647244410402299</v>
       </c>
-      <c r="I44">
+      <c r="J44">
         <v>8.8523928324381496E-2</v>
       </c>
-      <c r="J44">
+      <c r="K44">
         <v>2.60463604927063</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>16</v>
       </c>
@@ -1839,23 +2056,26 @@
       <c r="E45" t="s">
         <v>12</v>
       </c>
-      <c r="F45">
+      <c r="F45" t="s">
+        <v>28</v>
+      </c>
+      <c r="G45">
         <v>24.285714285714199</v>
       </c>
-      <c r="G45">
+      <c r="H45">
         <v>12.8885771438962</v>
       </c>
-      <c r="H45">
+      <c r="I45">
         <v>12.241339342366301</v>
       </c>
-      <c r="I45">
+      <c r="J45">
         <v>8.4581068583897107E-2</v>
       </c>
-      <c r="J45">
+      <c r="K45">
         <v>3.0064978940146299</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>16</v>
       </c>
@@ -1871,23 +2091,26 @@
       <c r="E46" t="s">
         <v>13</v>
       </c>
-      <c r="F46">
-        <v>16</v>
+      <c r="F46" t="s">
+        <v>28</v>
       </c>
       <c r="G46">
+        <v>16</v>
+      </c>
+      <c r="H46">
         <v>6.1279116828988904</v>
       </c>
-      <c r="H46">
+      <c r="I46">
         <v>7.5827556611870301</v>
       </c>
-      <c r="I46">
+      <c r="J46">
         <v>8.1907478968302402E-2</v>
       </c>
-      <c r="J46">
+      <c r="K46">
         <v>4.1987582524617499</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>16</v>
       </c>
@@ -1903,23 +2126,26 @@
       <c r="E47" t="s">
         <v>9</v>
       </c>
-      <c r="F47">
+      <c r="F47" t="s">
+        <v>29</v>
+      </c>
+      <c r="G47">
         <v>49.999999999999901</v>
       </c>
-      <c r="G47">
+      <c r="H47">
         <v>16.369064871575599</v>
       </c>
-      <c r="H47">
+      <c r="I47">
         <v>19.9224156458198</v>
       </c>
-      <c r="I47">
+      <c r="J47">
         <v>6.1403433481852197E-2</v>
       </c>
-      <c r="J47">
+      <c r="K47">
         <v>22.790291945139501</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>16</v>
       </c>
@@ -1935,23 +2161,26 @@
       <c r="E48" t="s">
         <v>10</v>
       </c>
-      <c r="F48">
+      <c r="F48" t="s">
+        <v>29</v>
+      </c>
+      <c r="G48">
         <v>52.380952380952301</v>
       </c>
-      <c r="G48">
+      <c r="H48">
         <v>19.563641683457298</v>
       </c>
-      <c r="H48">
+      <c r="I48">
         <v>26.472316199206901</v>
       </c>
-      <c r="I48">
+      <c r="J48">
         <v>6.7630359104701401E-2</v>
       </c>
-      <c r="J48">
+      <c r="K48">
         <v>16.413831148828699</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>16</v>
       </c>
@@ -1967,23 +2196,26 @@
       <c r="E49" t="s">
         <v>11</v>
       </c>
-      <c r="F49">
+      <c r="F49" t="s">
+        <v>29</v>
+      </c>
+      <c r="G49">
         <v>55.5555555555555</v>
       </c>
-      <c r="G49">
+      <c r="H49">
         <v>21.526401230348501</v>
       </c>
-      <c r="H49">
+      <c r="I49">
         <v>26.382628318764301</v>
       </c>
-      <c r="I49">
+      <c r="J49">
         <v>7.4691017468770299E-2</v>
       </c>
-      <c r="J49">
+      <c r="K49">
         <v>24.598148365815401</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>16</v>
       </c>
@@ -1999,23 +2231,26 @@
       <c r="E50" t="s">
         <v>12</v>
       </c>
-      <c r="F50">
+      <c r="F50" t="s">
+        <v>29</v>
+      </c>
+      <c r="G50">
         <v>61.1111111111111</v>
       </c>
-      <c r="G50">
+      <c r="H50">
         <v>26.693757631257601</v>
       </c>
-      <c r="H50">
+      <c r="I50">
         <v>32.317832236562801</v>
       </c>
-      <c r="I50">
+      <c r="J50">
         <v>5.3104937076568597E-2</v>
       </c>
-      <c r="J50">
+      <c r="K50">
         <v>17.6268053054809</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>16</v>
       </c>
@@ -2031,23 +2266,26 @@
       <c r="E51" t="s">
         <v>13</v>
       </c>
-      <c r="F51">
+      <c r="F51" t="s">
+        <v>29</v>
+      </c>
+      <c r="G51">
         <v>50</v>
       </c>
-      <c r="G51">
+      <c r="H51">
         <v>22.5140056022408</v>
       </c>
-      <c r="H51">
+      <c r="I51">
         <v>25.401524093979301</v>
       </c>
-      <c r="I51">
+      <c r="J51">
         <v>5.4679433504740298E-2</v>
       </c>
-      <c r="J51">
+      <c r="K51">
         <v>14.1985254089037</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>16</v>
       </c>
@@ -2063,23 +2301,26 @@
       <c r="E52" t="s">
         <v>9</v>
       </c>
-      <c r="F52">
+      <c r="F52" t="s">
+        <v>30</v>
+      </c>
+      <c r="G52">
         <v>40</v>
       </c>
-      <c r="G52">
+      <c r="H52">
         <v>22.241088491088401</v>
       </c>
-      <c r="H52">
+      <c r="I52">
         <v>24.635193735803401</v>
       </c>
-      <c r="I52">
+      <c r="J52">
         <v>6.18137915929158E-2</v>
       </c>
-      <c r="J52">
+      <c r="K52">
         <v>22.861263334751101</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>16</v>
       </c>
@@ -2095,23 +2336,26 @@
       <c r="E53" t="s">
         <v>10</v>
       </c>
-      <c r="F53">
+      <c r="F53" t="s">
+        <v>30</v>
+      </c>
+      <c r="G53">
         <v>45.714285714285701</v>
       </c>
-      <c r="G53">
+      <c r="H53">
         <v>20.832763727500499</v>
       </c>
-      <c r="H53">
+      <c r="I53">
         <v>26.252361673414299</v>
       </c>
-      <c r="I53">
+      <c r="J53">
         <v>5.9158733912876599E-2</v>
       </c>
-      <c r="J53">
+      <c r="K53">
         <v>19.052410755838601</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>16</v>
       </c>
@@ -2127,23 +2371,26 @@
       <c r="E54" t="s">
         <v>11</v>
       </c>
-      <c r="F54">
+      <c r="F54" t="s">
+        <v>30</v>
+      </c>
+      <c r="G54">
         <v>41.6666666666666</v>
       </c>
-      <c r="G54">
+      <c r="H54">
         <v>21.914300976800899</v>
       </c>
-      <c r="H54">
+      <c r="I54">
         <v>24.9897787397787</v>
       </c>
-      <c r="I54">
+      <c r="J54">
         <v>5.6237876415252602E-2</v>
       </c>
-      <c r="J54">
+      <c r="K54">
         <v>21.566289544105501</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>16</v>
       </c>
@@ -2159,23 +2406,26 @@
       <c r="E55" t="s">
         <v>12</v>
       </c>
-      <c r="F55">
+      <c r="F55" t="s">
+        <v>30</v>
+      </c>
+      <c r="G55">
         <v>47.692307692307601</v>
       </c>
-      <c r="G55">
+      <c r="H55">
         <v>29.903537322892099</v>
       </c>
-      <c r="H55">
+      <c r="I55">
         <v>32.021268400867001</v>
       </c>
-      <c r="I55">
+      <c r="J55">
         <v>6.3553424981924206E-2</v>
       </c>
-      <c r="J55">
+      <c r="K55">
         <v>20.206529598969599</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>16</v>
       </c>
@@ -2191,23 +2441,26 @@
       <c r="E56" t="s">
         <v>13</v>
       </c>
-      <c r="F56">
+      <c r="F56" t="s">
+        <v>30</v>
+      </c>
+      <c r="G56">
         <v>44.615384615384599</v>
       </c>
-      <c r="G56">
+      <c r="H56">
         <v>20.325657137069499</v>
       </c>
-      <c r="H56">
+      <c r="I56">
         <v>26.581676242309701</v>
       </c>
-      <c r="I56">
+      <c r="J56">
         <v>7.0116024750929595E-2</v>
       </c>
-      <c r="J56">
+      <c r="K56">
         <v>18.896244709308299</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>16</v>
       </c>
@@ -2223,23 +2476,26 @@
       <c r="E57" t="s">
         <v>9</v>
       </c>
-      <c r="F57">
+      <c r="F57" t="s">
+        <v>31</v>
+      </c>
+      <c r="G57">
         <v>59.285714285714199</v>
       </c>
-      <c r="G57">
+      <c r="H57">
         <v>45.937445000083201</v>
       </c>
-      <c r="H57">
+      <c r="I57">
         <v>48.0857649156614</v>
       </c>
-      <c r="I57">
+      <c r="J57">
         <v>6.1280965805053697E-2</v>
       </c>
-      <c r="J57">
+      <c r="K57">
         <v>24.893710817609499</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>16</v>
       </c>
@@ -2255,23 +2511,26 @@
       <c r="E58" t="s">
         <v>10</v>
       </c>
-      <c r="F58">
+      <c r="F58" t="s">
+        <v>31</v>
+      </c>
+      <c r="G58">
         <v>60</v>
       </c>
-      <c r="G58">
+      <c r="H58">
         <v>44.654074226435597</v>
       </c>
-      <c r="H58">
+      <c r="I58">
         <v>46.050578857684499</v>
       </c>
-      <c r="I58">
+      <c r="J58">
         <v>5.9586048126220703E-2</v>
       </c>
-      <c r="J58">
+      <c r="K58">
         <v>27.898762830098399</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>16</v>
       </c>
@@ -2287,23 +2546,26 @@
       <c r="E59" t="s">
         <v>11</v>
       </c>
-      <c r="F59">
+      <c r="F59" t="s">
+        <v>31</v>
+      </c>
+      <c r="G59">
         <v>64.1666666666666</v>
       </c>
-      <c r="G59">
+      <c r="H59">
         <v>45.858126225773198</v>
       </c>
-      <c r="H59">
+      <c r="I59">
         <v>50.549847407228398</v>
       </c>
-      <c r="I59">
+      <c r="J59">
         <v>5.9975167115529297E-2</v>
       </c>
-      <c r="J59">
+      <c r="K59">
         <v>24.648353119691201</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>16</v>
       </c>
@@ -2319,23 +2581,26 @@
       <c r="E60" t="s">
         <v>12</v>
       </c>
-      <c r="F60">
+      <c r="F60" t="s">
+        <v>31</v>
+      </c>
+      <c r="G60">
         <v>56.581196581196501</v>
       </c>
-      <c r="G60">
+      <c r="H60">
         <v>35.721500721500703</v>
       </c>
-      <c r="H60">
+      <c r="I60">
         <v>41.754646276696498</v>
       </c>
-      <c r="I60">
+      <c r="J60">
         <v>6.4178411777202904E-2</v>
       </c>
-      <c r="J60">
+      <c r="K60">
         <v>26.6471675909482</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>16</v>
       </c>
@@ -2351,23 +2616,26 @@
       <c r="E61" t="s">
         <v>13</v>
       </c>
-      <c r="F61">
+      <c r="F61" t="s">
+        <v>31</v>
+      </c>
+      <c r="G61">
         <v>52.857142857142797</v>
       </c>
-      <c r="G61">
+      <c r="H61">
         <v>36.739001404602</v>
       </c>
-      <c r="H61">
+      <c r="I61">
         <v>41.064779572160802</v>
       </c>
-      <c r="I61">
+      <c r="J61">
         <v>5.9749467032296298E-2</v>
       </c>
-      <c r="J61">
+      <c r="K61">
         <v>21.485947046961101</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>16</v>
       </c>
@@ -2383,23 +2651,26 @@
       <c r="E62" t="s">
         <v>9</v>
       </c>
-      <c r="F62">
+      <c r="F62" t="s">
+        <v>32</v>
+      </c>
+      <c r="G62">
         <v>60</v>
       </c>
-      <c r="G62">
+      <c r="H62">
         <v>29.8576035677428</v>
       </c>
-      <c r="H62">
+      <c r="I62">
         <v>25.576192800301399</v>
       </c>
-      <c r="I62">
+      <c r="J62">
         <v>5.93852043151855E-2</v>
       </c>
-      <c r="J62">
+      <c r="K62">
         <v>12.893273496627801</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>16</v>
       </c>
@@ -2415,23 +2686,26 @@
       <c r="E63" t="s">
         <v>10</v>
       </c>
-      <c r="F63">
+      <c r="F63" t="s">
+        <v>32</v>
+      </c>
+      <c r="G63">
         <v>46.6666666666666</v>
       </c>
-      <c r="G63">
+      <c r="H63">
         <v>9.7766390912458299</v>
       </c>
-      <c r="H63">
+      <c r="I63">
         <v>14.192634037372599</v>
       </c>
-      <c r="I63">
+      <c r="J63">
         <v>5.5985856056213298E-2</v>
       </c>
-      <c r="J63">
+      <c r="K63">
         <v>8.8847860336303697</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>16</v>
       </c>
@@ -2447,23 +2721,26 @@
       <c r="E64" t="s">
         <v>11</v>
       </c>
-      <c r="F64">
+      <c r="F64" t="s">
+        <v>32</v>
+      </c>
+      <c r="G64">
         <v>45.8333333333333</v>
       </c>
-      <c r="G64">
+      <c r="H64">
         <v>13.3168608352431</v>
       </c>
-      <c r="H64">
+      <c r="I64">
         <v>16.144484820955402</v>
       </c>
-      <c r="I64">
+      <c r="J64">
         <v>5.3623974323272698E-2</v>
       </c>
-      <c r="J64">
+      <c r="K64">
         <v>6.7545502781867901</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>16</v>
       </c>
@@ -2479,23 +2756,26 @@
       <c r="E65" t="s">
         <v>12</v>
       </c>
-      <c r="F65">
+      <c r="F65" t="s">
+        <v>32</v>
+      </c>
+      <c r="G65">
         <v>71.428571428571402</v>
       </c>
-      <c r="G65">
+      <c r="H65">
         <v>17.810412504460501</v>
       </c>
-      <c r="H65">
+      <c r="I65">
         <v>21.123373325938498</v>
       </c>
-      <c r="I65">
+      <c r="J65">
         <v>5.6806768689836702E-2</v>
       </c>
-      <c r="J65">
+      <c r="K65">
         <v>17.3639933722359</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>16</v>
       </c>
@@ -2511,23 +2791,26 @@
       <c r="E66" t="s">
         <v>13</v>
       </c>
-      <c r="F66">
+      <c r="F66" t="s">
+        <v>32</v>
+      </c>
+      <c r="G66">
         <v>62.5</v>
       </c>
-      <c r="G66">
+      <c r="H66">
         <v>10.2164179975716</v>
       </c>
-      <c r="H66">
+      <c r="I66">
         <v>16.293433163181302</v>
       </c>
-      <c r="I66">
+      <c r="J66">
         <v>5.7611942291259703E-2</v>
       </c>
-      <c r="J66">
+      <c r="K66">
         <v>14.3143546283245</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>16</v>
       </c>
@@ -2543,23 +2826,26 @@
       <c r="E67" t="s">
         <v>9</v>
       </c>
-      <c r="F67">
+      <c r="F67" t="s">
+        <v>33</v>
+      </c>
+      <c r="G67">
         <v>49.090909090909001</v>
       </c>
-      <c r="G67">
+      <c r="H67">
         <v>10.1101578160401</v>
       </c>
-      <c r="H67">
+      <c r="I67">
         <v>15.1634438077248</v>
       </c>
-      <c r="I67">
+      <c r="J67">
         <v>5.4977807131680503E-2</v>
       </c>
-      <c r="J67">
+      <c r="K67">
         <v>12.3945441462776</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>16</v>
       </c>
@@ -2575,23 +2861,26 @@
       <c r="E68" t="s">
         <v>10</v>
       </c>
-      <c r="F68">
+      <c r="F68" t="s">
+        <v>33</v>
+      </c>
+      <c r="G68">
         <v>54.545454545454497</v>
       </c>
-      <c r="G68">
+      <c r="H68">
         <v>25.245691929902399</v>
       </c>
-      <c r="H68">
+      <c r="I68">
         <v>26.3631822722731</v>
       </c>
-      <c r="I68">
+      <c r="J68">
         <v>5.6015643206509598E-2</v>
       </c>
-      <c r="J68">
+      <c r="K68">
         <v>11.0289337201551</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>16</v>
       </c>
@@ -2607,23 +2896,26 @@
       <c r="E69" t="s">
         <v>11</v>
       </c>
-      <c r="F69">
+      <c r="F69" t="s">
+        <v>33</v>
+      </c>
+      <c r="G69">
         <v>62.2222222222222</v>
       </c>
-      <c r="G69">
+      <c r="H69">
         <v>16.180334269765101</v>
       </c>
-      <c r="H69">
+      <c r="I69">
         <v>23.045765570067399</v>
       </c>
-      <c r="I69">
+      <c r="J69">
         <v>5.8574941423204199E-2</v>
       </c>
-      <c r="J69">
+      <c r="K69">
         <v>14.323621882332599</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>16</v>
       </c>
@@ -2639,23 +2931,26 @@
       <c r="E70" t="s">
         <v>12</v>
       </c>
-      <c r="F70">
+      <c r="F70" t="s">
+        <v>33</v>
+      </c>
+      <c r="G70">
         <v>68.8888888888888</v>
       </c>
-      <c r="G70">
+      <c r="H70">
         <v>19.8515712743576</v>
       </c>
-      <c r="H70">
+      <c r="I70">
         <v>25.6594319605286</v>
       </c>
-      <c r="I70">
+      <c r="J70">
         <v>6.1120033264160101E-2</v>
       </c>
-      <c r="J70">
+      <c r="K70">
         <v>12.6936554378933</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>16</v>
       </c>
@@ -2671,23 +2966,26 @@
       <c r="E71" t="s">
         <v>13</v>
       </c>
-      <c r="F71">
+      <c r="F71" t="s">
+        <v>33</v>
+      </c>
+      <c r="G71">
         <v>60</v>
       </c>
-      <c r="G71">
+      <c r="H71">
         <v>23.4144830475215</v>
       </c>
-      <c r="H71">
+      <c r="I71">
         <v>21.747464661956801</v>
       </c>
-      <c r="I71">
+      <c r="J71">
         <v>5.6831704245673201E-2</v>
       </c>
-      <c r="J71">
+      <c r="K71">
         <v>14.2438191572825</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>16</v>
       </c>
@@ -2703,23 +3001,26 @@
       <c r="E72" t="s">
         <v>9</v>
       </c>
-      <c r="F72">
+      <c r="F72" t="s">
+        <v>34</v>
+      </c>
+      <c r="G72">
         <v>56.3888888888888</v>
       </c>
-      <c r="G72">
+      <c r="H72">
         <v>27.861381394663098</v>
       </c>
-      <c r="H72">
+      <c r="I72">
         <v>34.2714152120381</v>
       </c>
-      <c r="I72">
+      <c r="J72">
         <v>5.7442327340443897E-2</v>
       </c>
-      <c r="J72">
+      <c r="K72">
         <v>12.2008502483367</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>16</v>
       </c>
@@ -2735,23 +3036,26 @@
       <c r="E73" t="s">
         <v>10</v>
       </c>
-      <c r="F73">
+      <c r="F73" t="s">
+        <v>34</v>
+      </c>
+      <c r="G73">
         <v>52.307692307692299</v>
       </c>
-      <c r="G73">
+      <c r="H73">
         <v>36.563879182657402</v>
       </c>
-      <c r="H73">
+      <c r="I73">
         <v>36.0438748297627</v>
       </c>
-      <c r="I73">
+      <c r="J73">
         <v>5.42880388406606E-2</v>
       </c>
-      <c r="J73">
+      <c r="K73">
         <v>7.7557494456951401</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>16</v>
       </c>
@@ -2767,23 +3071,26 @@
       <c r="E74" t="s">
         <v>11</v>
       </c>
-      <c r="F74">
+      <c r="F74" t="s">
+        <v>34</v>
+      </c>
+      <c r="G74">
         <v>60.8333333333333</v>
       </c>
-      <c r="G74">
+      <c r="H74">
         <v>32.875825701912603</v>
       </c>
-      <c r="H74">
+      <c r="I74">
         <v>34.8700655222394</v>
       </c>
-      <c r="I74">
+      <c r="J74">
         <v>5.59264222780863E-2</v>
       </c>
-      <c r="J74">
+      <c r="K74">
         <v>13.6449668606122</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>16</v>
       </c>
@@ -2799,23 +3106,26 @@
       <c r="E75" t="s">
         <v>12</v>
       </c>
-      <c r="F75">
+      <c r="F75" t="s">
+        <v>34</v>
+      </c>
+      <c r="G75">
         <v>74</v>
       </c>
-      <c r="G75">
+      <c r="H75">
         <v>34.667950579043101</v>
       </c>
-      <c r="H75">
+      <c r="I75">
         <v>42.816632237027299</v>
       </c>
-      <c r="I75">
+      <c r="J75">
         <v>5.6357049942016603E-2</v>
       </c>
-      <c r="J75">
+      <c r="K75">
         <v>15.284618949890101</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>16</v>
       </c>
@@ -2831,23 +3141,26 @@
       <c r="E76" t="s">
         <v>13</v>
       </c>
-      <c r="F76">
+      <c r="F76" t="s">
+        <v>34</v>
+      </c>
+      <c r="G76">
         <v>61.717171717171702</v>
       </c>
-      <c r="G76">
+      <c r="H76">
         <v>33.858346579651901</v>
       </c>
-      <c r="H76">
+      <c r="I76">
         <v>35.708835656702099</v>
       </c>
-      <c r="I76">
+      <c r="J76">
         <v>6.03170611641623E-2</v>
       </c>
-      <c r="J76">
+      <c r="K76">
         <v>14.6629737073724</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>16</v>
       </c>
@@ -2863,23 +3176,26 @@
       <c r="E77" t="s">
         <v>9</v>
       </c>
-      <c r="F77">
+      <c r="F77" t="s">
+        <v>35</v>
+      </c>
+      <c r="G77">
         <v>100</v>
       </c>
-      <c r="G77">
+      <c r="H77">
         <v>3.93923320903518</v>
       </c>
-      <c r="H77">
+      <c r="I77">
         <v>7.4848398032755501</v>
       </c>
-      <c r="I77">
+      <c r="J77">
         <v>3.8710594177245997E-2</v>
       </c>
-      <c r="J77">
+      <c r="K77">
         <v>7.9132330417633003</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>16</v>
       </c>
@@ -2895,23 +3211,26 @@
       <c r="E78" t="s">
         <v>10</v>
       </c>
-      <c r="F78">
+      <c r="F78" t="s">
+        <v>35</v>
+      </c>
+      <c r="G78">
         <v>100</v>
       </c>
-      <c r="G78">
+      <c r="H78">
         <v>3.9428715783395498</v>
       </c>
-      <c r="H78">
+      <c r="I78">
         <v>7.5531983285117299</v>
       </c>
-      <c r="I78">
+      <c r="J78">
         <v>4.0668408075968401E-2</v>
       </c>
-      <c r="J78">
+      <c r="K78">
         <v>8.4754753907521501</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>16</v>
       </c>
@@ -2927,23 +3246,26 @@
       <c r="E79" t="s">
         <v>11</v>
       </c>
-      <c r="F79">
+      <c r="F79" t="s">
+        <v>35</v>
+      </c>
+      <c r="G79">
         <v>100</v>
       </c>
-      <c r="G79">
+      <c r="H79">
         <v>5.7204700061842901</v>
       </c>
-      <c r="H79">
+      <c r="I79">
         <v>10.790598290598201</v>
       </c>
-      <c r="I79">
+      <c r="J79">
         <v>5.4803133010864202E-2</v>
       </c>
-      <c r="J79">
+      <c r="K79">
         <v>5.9589242140451999</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>16</v>
       </c>
@@ -2959,23 +3281,26 @@
       <c r="E80" t="s">
         <v>12</v>
       </c>
-      <c r="F80">
+      <c r="F80" t="s">
+        <v>35</v>
+      </c>
+      <c r="G80">
         <v>100</v>
       </c>
-      <c r="G80">
+      <c r="H80">
         <v>2.5630837723214501</v>
       </c>
-      <c r="H80">
+      <c r="I80">
         <v>4.9763904961924696</v>
       </c>
-      <c r="I80">
+      <c r="J80">
         <v>4.8936049143473298E-2</v>
       </c>
-      <c r="J80">
+      <c r="K80">
         <v>8.9916815757751394</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>16</v>
       </c>
@@ -2991,23 +3316,26 @@
       <c r="E81" t="s">
         <v>13</v>
       </c>
-      <c r="F81">
+      <c r="F81" t="s">
+        <v>35</v>
+      </c>
+      <c r="G81">
         <v>100</v>
       </c>
-      <c r="G81">
+      <c r="H81">
         <v>4.6810850439882596</v>
       </c>
-      <c r="H81">
+      <c r="I81">
         <v>8.9348374932088994</v>
       </c>
-      <c r="I81">
+      <c r="J81">
         <v>4.4705231984456299E-2</v>
       </c>
-      <c r="J81">
+      <c r="K81">
         <v>7.4877858161926198</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>16</v>
       </c>
@@ -3023,23 +3351,26 @@
       <c r="E82" t="s">
         <v>9</v>
       </c>
-      <c r="F82">
+      <c r="F82" t="s">
+        <v>36</v>
+      </c>
+      <c r="G82">
         <v>66.6666666666666</v>
       </c>
-      <c r="G82">
+      <c r="H82">
         <v>13.6502502267721</v>
       </c>
-      <c r="H82">
+      <c r="I82">
         <v>19.914128363740701</v>
       </c>
-      <c r="I82">
+      <c r="J82">
         <v>6.0071388880411698E-2</v>
       </c>
-      <c r="J82">
+      <c r="K82">
         <v>5.6696088314056396</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>16</v>
       </c>
@@ -3055,23 +3386,26 @@
       <c r="E83" t="s">
         <v>10</v>
       </c>
-      <c r="F83">
+      <c r="F83" t="s">
+        <v>36</v>
+      </c>
+      <c r="G83">
         <v>88</v>
       </c>
-      <c r="G83">
+      <c r="H83">
         <v>15.796093494606</v>
       </c>
-      <c r="H83">
+      <c r="I83">
         <v>23.9694477858189</v>
       </c>
-      <c r="I83">
+      <c r="J83">
         <v>4.6264457702636701E-2</v>
       </c>
-      <c r="J83">
+      <c r="K83">
         <v>7.7063825607299803</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>16</v>
       </c>
@@ -3087,23 +3421,26 @@
       <c r="E84" t="s">
         <v>11</v>
       </c>
-      <c r="F84">
+      <c r="F84" t="s">
+        <v>36</v>
+      </c>
+      <c r="G84">
         <v>76.6666666666666</v>
       </c>
-      <c r="G84">
+      <c r="H84">
         <v>16.183000715964699</v>
       </c>
-      <c r="H84">
+      <c r="I84">
         <v>24.087295151077399</v>
       </c>
-      <c r="I84">
+      <c r="J84">
         <v>5.3537050882975203E-2</v>
       </c>
-      <c r="J84">
+      <c r="K84">
         <v>4.4457103808720904</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>16</v>
       </c>
@@ -3119,23 +3456,26 @@
       <c r="E85" t="s">
         <v>12</v>
       </c>
-      <c r="F85">
+      <c r="F85" t="s">
+        <v>36</v>
+      </c>
+      <c r="G85">
         <v>90</v>
       </c>
-      <c r="G85">
+      <c r="H85">
         <v>7.1923673467771199</v>
       </c>
-      <c r="H85">
+      <c r="I85">
         <v>13.0100583852863</v>
       </c>
-      <c r="I85">
+      <c r="J85">
         <v>5.3852319717407199E-2</v>
       </c>
-      <c r="J85">
+      <c r="K85">
         <v>8.7567169666290194</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>16</v>
       </c>
@@ -3151,23 +3491,26 @@
       <c r="E86" t="s">
         <v>13</v>
       </c>
-      <c r="F86">
+      <c r="F86" t="s">
+        <v>36</v>
+      </c>
+      <c r="G86">
         <v>76</v>
       </c>
-      <c r="G86">
+      <c r="H86">
         <v>10.490894902659599</v>
       </c>
-      <c r="H86">
+      <c r="I86">
         <v>17.2725534171317</v>
       </c>
-      <c r="I86">
+      <c r="J86">
         <v>5.1107978820800697E-2</v>
       </c>
-      <c r="J86">
+      <c r="K86">
         <v>5.8813971042633</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>16</v>
       </c>
@@ -3183,23 +3526,26 @@
       <c r="E87" t="s">
         <v>9</v>
       </c>
-      <c r="F87">
+      <c r="F87" t="s">
+        <v>37</v>
+      </c>
+      <c r="G87">
         <v>69.5833333333333</v>
       </c>
-      <c r="G87">
+      <c r="H87">
         <v>32.217535216761199</v>
       </c>
-      <c r="H87">
+      <c r="I87">
         <v>38.166019136074603</v>
       </c>
-      <c r="I87">
+      <c r="J87">
         <v>5.4087549448013299E-2</v>
       </c>
-      <c r="J87">
+      <c r="K87">
         <v>5.5154985189437804</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>16</v>
       </c>
@@ -3215,23 +3561,26 @@
       <c r="E88" t="s">
         <v>10</v>
       </c>
-      <c r="F88">
+      <c r="F88" t="s">
+        <v>37</v>
+      </c>
+      <c r="G88">
         <v>71.25</v>
       </c>
-      <c r="G88">
+      <c r="H88">
         <v>23.441101799142501</v>
       </c>
-      <c r="H88">
+      <c r="I88">
         <v>34.203224720466103</v>
       </c>
-      <c r="I88">
+      <c r="J88">
         <v>5.5485725402831997E-2</v>
       </c>
-      <c r="J88">
+      <c r="K88">
         <v>3.95163017511367</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>16</v>
       </c>
@@ -3247,23 +3596,26 @@
       <c r="E89" t="s">
         <v>11</v>
       </c>
-      <c r="F89">
+      <c r="F89" t="s">
+        <v>37</v>
+      </c>
+      <c r="G89">
         <v>74.285714285714207</v>
       </c>
-      <c r="G89">
+      <c r="H89">
         <v>29.767647318667699</v>
       </c>
-      <c r="H89">
+      <c r="I89">
         <v>40.539341565975903</v>
       </c>
-      <c r="I89">
+      <c r="J89">
         <v>5.7364327566964197E-2</v>
       </c>
-      <c r="J89">
+      <c r="K89">
         <v>3.2933602673666802</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>16</v>
       </c>
@@ -3279,23 +3631,26 @@
       <c r="E90" t="s">
         <v>12</v>
       </c>
-      <c r="F90">
+      <c r="F90" t="s">
+        <v>37</v>
+      </c>
+      <c r="G90">
         <v>88.3333333333333</v>
       </c>
-      <c r="G90">
+      <c r="H90">
         <v>32.638768041993799</v>
       </c>
-      <c r="H90">
+      <c r="I90">
         <v>41.275910333029699</v>
       </c>
-      <c r="I90">
+      <c r="J90">
         <v>5.20585775375366E-2</v>
       </c>
-      <c r="J90">
+      <c r="K90">
         <v>8.9669808149337698</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>16</v>
       </c>
@@ -3311,23 +3666,26 @@
       <c r="E91" t="s">
         <v>13</v>
       </c>
-      <c r="F91">
+      <c r="F91" t="s">
+        <v>37</v>
+      </c>
+      <c r="G91">
         <v>75.714285714285694</v>
       </c>
-      <c r="G91">
+      <c r="H91">
         <v>43.734250430372697</v>
       </c>
-      <c r="H91">
+      <c r="I91">
         <v>41.660690168563598</v>
       </c>
-      <c r="I91">
+      <c r="J91">
         <v>5.7956525257655503E-2</v>
       </c>
-      <c r="J91">
+      <c r="K91">
         <v>6.1384556634085499</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>16</v>
       </c>
@@ -3343,23 +3701,26 @@
       <c r="E92" t="s">
         <v>9</v>
       </c>
-      <c r="F92">
+      <c r="F92" t="s">
+        <v>38</v>
+      </c>
+      <c r="G92">
         <v>51.515151515151501</v>
       </c>
-      <c r="G92">
+      <c r="H92">
         <v>21.111124538543798</v>
       </c>
-      <c r="H92">
+      <c r="I92">
         <v>24.801566889748798</v>
       </c>
-      <c r="I92">
+      <c r="J92">
         <v>5.2978558973832503E-2</v>
       </c>
-      <c r="J92">
+      <c r="K92">
         <v>15.194897608323499</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>16</v>
       </c>
@@ -3375,23 +3736,26 @@
       <c r="E93" t="s">
         <v>10</v>
       </c>
-      <c r="F93">
+      <c r="F93" t="s">
+        <v>38</v>
+      </c>
+      <c r="G93">
         <v>33.3333333333333</v>
       </c>
-      <c r="G93">
+      <c r="H93">
         <v>10.071921542509701</v>
       </c>
-      <c r="H93">
+      <c r="I93">
         <v>14.869524068608699</v>
       </c>
-      <c r="I93">
+      <c r="J93">
         <v>5.6728784854595399E-2</v>
       </c>
-      <c r="J93">
+      <c r="K93">
         <v>12.135882469323899</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>16</v>
       </c>
@@ -3407,23 +3771,26 @@
       <c r="E94" t="s">
         <v>11</v>
       </c>
-      <c r="F94">
+      <c r="F94" t="s">
+        <v>38</v>
+      </c>
+      <c r="G94">
         <v>39.393939393939299</v>
       </c>
-      <c r="G94">
+      <c r="H94">
         <v>12.917355371900801</v>
       </c>
-      <c r="H94">
+      <c r="I94">
         <v>18.228715728715699</v>
       </c>
-      <c r="I94">
+      <c r="J94">
         <v>5.3892092271284602E-2</v>
       </c>
-      <c r="J94">
+      <c r="K94">
         <v>18.234458663246802</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>16</v>
       </c>
@@ -3439,23 +3806,26 @@
       <c r="E95" t="s">
         <v>12</v>
       </c>
-      <c r="F95">
+      <c r="F95" t="s">
+        <v>38</v>
+      </c>
+      <c r="G95">
         <v>36.1111111111111</v>
       </c>
-      <c r="G95">
+      <c r="H95">
         <v>19.987373737373701</v>
       </c>
-      <c r="H95">
+      <c r="I95">
         <v>21.9498858629293</v>
       </c>
-      <c r="I95">
+      <c r="J95">
         <v>5.0749917825063003E-2</v>
       </c>
-      <c r="J95">
+      <c r="K95">
         <v>7.78055924177169</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>16</v>
       </c>
@@ -3471,23 +3841,26 @@
       <c r="E96" t="s">
         <v>13</v>
       </c>
-      <c r="F96">
+      <c r="F96" t="s">
+        <v>38</v>
+      </c>
+      <c r="G96">
         <v>36.363636363636303</v>
       </c>
-      <c r="G96">
+      <c r="H96">
         <v>10.0861259952169</v>
       </c>
-      <c r="H96">
+      <c r="I96">
         <v>14.568089862207501</v>
       </c>
-      <c r="I96">
+      <c r="J96">
         <v>5.6901584972034798E-2</v>
       </c>
-      <c r="J96">
+      <c r="K96">
         <v>13.5726066285913</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>16</v>
       </c>
@@ -3503,23 +3876,26 @@
       <c r="E97" t="s">
         <v>9</v>
       </c>
-      <c r="F97">
+      <c r="F97" t="s">
+        <v>39</v>
+      </c>
+      <c r="G97">
         <v>36.363636363636303</v>
       </c>
-      <c r="G97">
+      <c r="H97">
         <v>16.830578512396599</v>
       </c>
-      <c r="H97">
+      <c r="I97">
         <v>20.694860694860601</v>
       </c>
-      <c r="I97">
+      <c r="J97">
         <v>5.5892987684770003E-2</v>
       </c>
-      <c r="J97">
+      <c r="K97">
         <v>15.2915207039226</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>16</v>
       </c>
@@ -3535,23 +3911,26 @@
       <c r="E98" t="s">
         <v>10</v>
       </c>
-      <c r="F98">
+      <c r="F98" t="s">
+        <v>39</v>
+      </c>
+      <c r="G98">
         <v>22.857142857142801</v>
       </c>
-      <c r="G98">
+      <c r="H98">
         <v>8.9095787198253902</v>
       </c>
-      <c r="H98">
+      <c r="I98">
         <v>12.268550163286999</v>
       </c>
-      <c r="I98">
+      <c r="J98">
         <v>5.8628865650721902E-2</v>
       </c>
-      <c r="J98">
+      <c r="K98">
         <v>15.4321849686758</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>16</v>
       </c>
@@ -3567,23 +3946,26 @@
       <c r="E99" t="s">
         <v>11</v>
       </c>
-      <c r="F99">
+      <c r="F99" t="s">
+        <v>39</v>
+      </c>
+      <c r="G99">
         <v>50.909090909090899</v>
       </c>
-      <c r="G99">
+      <c r="H99">
         <v>15.870323190897301</v>
       </c>
-      <c r="H99">
+      <c r="I99">
         <v>22.421169461591798</v>
       </c>
-      <c r="I99">
+      <c r="J99">
         <v>5.4726470600474898E-2</v>
       </c>
-      <c r="J99">
+      <c r="K99">
         <v>21.4879071062261</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>16</v>
       </c>
@@ -3599,23 +3981,26 @@
       <c r="E100" t="s">
         <v>12</v>
       </c>
-      <c r="F100">
+      <c r="F100" t="s">
+        <v>39</v>
+      </c>
+      <c r="G100">
         <v>33.846153846153797</v>
       </c>
-      <c r="G100">
+      <c r="H100">
         <v>19.388528138528098</v>
       </c>
-      <c r="H100">
+      <c r="I100">
         <v>22.811593899471902</v>
       </c>
-      <c r="I100">
+      <c r="J100">
         <v>5.1963971211359997E-2</v>
       </c>
-      <c r="J100">
+      <c r="K100">
         <v>16.7419613874875</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>16</v>
       </c>
@@ -3631,23 +4016,26 @@
       <c r="E101" t="s">
         <v>13</v>
       </c>
-      <c r="F101">
+      <c r="F101" t="s">
+        <v>39</v>
+      </c>
+      <c r="G101">
         <v>32.727272727272698</v>
       </c>
-      <c r="G101">
+      <c r="H101">
         <v>15.1010908425163</v>
       </c>
-      <c r="H101">
+      <c r="I101">
         <v>17.9653679653679</v>
       </c>
-      <c r="I101">
+      <c r="J101">
         <v>4.8445614901455901E-2</v>
       </c>
-      <c r="J101">
+      <c r="K101">
         <v>14.898496844551699</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>16</v>
       </c>
@@ -3663,23 +4051,26 @@
       <c r="E102" t="s">
         <v>9</v>
       </c>
-      <c r="F102">
+      <c r="F102" t="s">
+        <v>40</v>
+      </c>
+      <c r="G102">
         <v>33.636363636363598</v>
       </c>
-      <c r="G102">
+      <c r="H102">
         <v>29.425041293884501</v>
       </c>
-      <c r="H102">
+      <c r="I102">
         <v>29.339536580915802</v>
       </c>
-      <c r="I102">
+      <c r="J102">
         <v>5.1855607466264199E-2</v>
       </c>
-      <c r="J102">
+      <c r="K102">
         <v>13.128081343390701</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>16</v>
       </c>
@@ -3695,23 +4086,26 @@
       <c r="E103" t="s">
         <v>10</v>
       </c>
-      <c r="F103">
+      <c r="F103" t="s">
+        <v>40</v>
+      </c>
+      <c r="G103">
         <v>23.8888888888888</v>
       </c>
-      <c r="G103">
+      <c r="H103">
         <v>25.777495987824299</v>
       </c>
-      <c r="H103">
+      <c r="I103">
         <v>19.887910508649298</v>
       </c>
-      <c r="I103">
+      <c r="J103">
         <v>5.3105797086443203E-2</v>
       </c>
-      <c r="J103">
+      <c r="K103">
         <v>19.9644940240042</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>16</v>
       </c>
@@ -3727,23 +4121,26 @@
       <c r="E104" t="s">
         <v>11</v>
       </c>
-      <c r="F104">
+      <c r="F104" t="s">
+        <v>40</v>
+      </c>
+      <c r="G104">
         <v>27.962962962962902</v>
       </c>
-      <c r="G104">
+      <c r="H104">
         <v>22.1750017483376</v>
       </c>
-      <c r="H104">
+      <c r="I104">
         <v>23.500225035020101</v>
       </c>
-      <c r="I104">
+      <c r="J104">
         <v>9.7492973009745201E-2</v>
       </c>
-      <c r="J104">
+      <c r="K104">
         <v>44.131633162498403</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>16</v>
       </c>
@@ -3759,23 +4156,26 @@
       <c r="E105" t="s">
         <v>12</v>
       </c>
-      <c r="F105">
+      <c r="F105" t="s">
+        <v>40</v>
+      </c>
+      <c r="G105">
         <v>27.301587301587301</v>
       </c>
-      <c r="G105">
+      <c r="H105">
         <v>24.7265829408686</v>
       </c>
-      <c r="H105">
+      <c r="I105">
         <v>23.0549965907108</v>
       </c>
-      <c r="I105">
+      <c r="J105">
         <v>0.10865584441593699</v>
       </c>
-      <c r="J105">
+      <c r="K105">
         <v>46.2955067668642</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>16</v>
       </c>
@@ -3791,23 +4191,26 @@
       <c r="E106" t="s">
         <v>13</v>
       </c>
-      <c r="F106">
+      <c r="F106" t="s">
+        <v>40</v>
+      </c>
+      <c r="G106">
         <v>31.818181818181799</v>
       </c>
-      <c r="G106">
+      <c r="H106">
         <v>32.236546641274998</v>
       </c>
-      <c r="H106">
+      <c r="I106">
         <v>28.486937907231098</v>
       </c>
-      <c r="I106">
+      <c r="J106">
         <v>0.10269227894869699</v>
       </c>
-      <c r="J106">
+      <c r="K106">
         <v>38.780237349596803</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>16</v>
       </c>
@@ -3823,23 +4226,26 @@
       <c r="E107" t="s">
         <v>9</v>
       </c>
-      <c r="F107">
+      <c r="F107" t="s">
+        <v>41</v>
+      </c>
+      <c r="G107">
         <v>55.5555555555555</v>
       </c>
-      <c r="G107">
+      <c r="H107">
         <v>12.753161870808899</v>
       </c>
-      <c r="H107">
+      <c r="I107">
         <v>19.424892734850602</v>
       </c>
-      <c r="I107">
+      <c r="J107">
         <v>5.2900420294867599E-2</v>
       </c>
-      <c r="J107">
+      <c r="K107">
         <v>4.7297411759694397</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>16</v>
       </c>
@@ -3855,23 +4261,26 @@
       <c r="E108" t="s">
         <v>10</v>
       </c>
-      <c r="F108">
+      <c r="F108" t="s">
+        <v>41</v>
+      </c>
+      <c r="G108">
         <v>46.6666666666666</v>
       </c>
-      <c r="G108">
+      <c r="H108">
         <v>12.091648341579599</v>
       </c>
-      <c r="H108">
+      <c r="I108">
         <v>14.4845513963161</v>
       </c>
-      <c r="I108">
+      <c r="J108">
         <v>5.1557660102844197E-2</v>
       </c>
-      <c r="J108">
+      <c r="K108">
         <v>8.1263139486312799</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>16</v>
       </c>
@@ -3887,23 +4296,26 @@
       <c r="E109" t="s">
         <v>11</v>
       </c>
-      <c r="F109">
+      <c r="F109" t="s">
+        <v>41</v>
+      </c>
+      <c r="G109">
         <v>40.740740740740698</v>
       </c>
-      <c r="G109">
+      <c r="H109">
         <v>8.0984447651114309</v>
       </c>
-      <c r="H109">
+      <c r="I109">
         <v>10.983547035402299</v>
       </c>
-      <c r="I109">
+      <c r="J109">
         <v>4.9734407001071498E-2</v>
       </c>
-      <c r="J109">
+      <c r="K109">
         <v>10.5941549142201</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>16</v>
       </c>
@@ -3919,23 +4331,26 @@
       <c r="E110" t="s">
         <v>12</v>
       </c>
-      <c r="F110">
+      <c r="F110" t="s">
+        <v>41</v>
+      </c>
+      <c r="G110">
         <v>33.3333333333333</v>
       </c>
-      <c r="G110">
+      <c r="H110">
         <v>2.74727836098613</v>
       </c>
-      <c r="H110">
+      <c r="I110">
         <v>4.97323555803088</v>
       </c>
-      <c r="I110">
+      <c r="J110">
         <v>5.4768482844034801E-2</v>
       </c>
-      <c r="J110">
+      <c r="K110">
         <v>8.1969127919938796</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>16</v>
       </c>
@@ -3951,23 +4366,26 @@
       <c r="E111" t="s">
         <v>13</v>
       </c>
-      <c r="F111">
+      <c r="F111" t="s">
+        <v>41</v>
+      </c>
+      <c r="G111">
         <v>33.3333333333333</v>
       </c>
-      <c r="G111">
+      <c r="H111">
         <v>2.3972975918056001</v>
       </c>
-      <c r="H111">
+      <c r="I111">
         <v>4.4709916486919896</v>
       </c>
-      <c r="I111">
+      <c r="J111">
         <v>5.1464170217514003E-2</v>
       </c>
-      <c r="J111">
+      <c r="K111">
         <v>5.1239712238311697</v>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>16</v>
       </c>
@@ -3983,23 +4401,26 @@
       <c r="E112" t="s">
         <v>9</v>
       </c>
-      <c r="F112">
+      <c r="F112" t="s">
+        <v>42</v>
+      </c>
+      <c r="G112">
         <v>48</v>
       </c>
-      <c r="G112">
+      <c r="H112">
         <v>14.238712374581899</v>
       </c>
-      <c r="H112">
+      <c r="I112">
         <v>20.1583531944373</v>
       </c>
-      <c r="I112">
+      <c r="J112">
         <v>4.7833633422851497E-2</v>
       </c>
-      <c r="J112">
+      <c r="K112">
         <v>5.2377180576324402</v>
       </c>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>16</v>
       </c>
@@ -4015,23 +4436,26 @@
       <c r="E113" t="s">
         <v>10</v>
       </c>
-      <c r="F113">
+      <c r="F113" t="s">
+        <v>42</v>
+      </c>
+      <c r="G113">
         <v>30</v>
       </c>
-      <c r="G113">
+      <c r="H113">
         <v>6.2117894402081202</v>
       </c>
-      <c r="H113">
+      <c r="I113">
         <v>8.9594481765293406</v>
       </c>
-      <c r="I113">
+      <c r="J113">
         <v>4.7953267892201702E-2</v>
       </c>
-      <c r="J113">
+      <c r="K113">
         <v>8.9369559884071297</v>
       </c>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>16</v>
       </c>
@@ -4047,23 +4471,26 @@
       <c r="E114" t="s">
         <v>11</v>
       </c>
-      <c r="F114">
+      <c r="F114" t="s">
+        <v>42</v>
+      </c>
+      <c r="G114">
         <v>26</v>
       </c>
-      <c r="G114">
+      <c r="H114">
         <v>15.3956992795468</v>
       </c>
-      <c r="H114">
+      <c r="I114">
         <v>10.6750790221048</v>
       </c>
-      <c r="I114">
+      <c r="J114">
         <v>5.0345206260681098E-2</v>
       </c>
-      <c r="J114">
+      <c r="K114">
         <v>10.9084383249282</v>
       </c>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>16</v>
       </c>
@@ -4079,23 +4506,26 @@
       <c r="E115" t="s">
         <v>12</v>
       </c>
-      <c r="F115">
+      <c r="F115" t="s">
+        <v>42</v>
+      </c>
+      <c r="G115">
         <v>32</v>
       </c>
-      <c r="G115">
+      <c r="H115">
         <v>5.5144188283723103</v>
       </c>
-      <c r="H115">
+      <c r="I115">
         <v>9.0437871601710391</v>
       </c>
-      <c r="I115">
+      <c r="J115">
         <v>5.0136065483093198E-2</v>
       </c>
-      <c r="J115">
+      <c r="K115">
         <v>7.47042853832244</v>
       </c>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>16</v>
       </c>
@@ -4111,23 +4541,26 @@
       <c r="E116" t="s">
         <v>13</v>
       </c>
-      <c r="F116">
+      <c r="F116" t="s">
+        <v>42</v>
+      </c>
+      <c r="G116">
         <v>35.5555555555555</v>
       </c>
-      <c r="G116">
+      <c r="H116">
         <v>11.8806509273054</v>
       </c>
-      <c r="H116">
+      <c r="I116">
         <v>13.468750635525399</v>
       </c>
-      <c r="I116">
+      <c r="J116">
         <v>5.1750421524047803E-2</v>
       </c>
-      <c r="J116">
+      <c r="K116">
         <v>7.6489533583323102</v>
       </c>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>16</v>
       </c>
@@ -4143,23 +4576,26 @@
       <c r="E117" t="s">
         <v>9</v>
       </c>
-      <c r="F117">
+      <c r="F117" t="s">
+        <v>43</v>
+      </c>
+      <c r="G117">
         <v>37.272727272727202</v>
       </c>
-      <c r="G117">
+      <c r="H117">
         <v>30.396014938023299</v>
       </c>
-      <c r="H117">
+      <c r="I117">
         <v>27.346896324168998</v>
       </c>
-      <c r="I117">
+      <c r="J117">
         <v>4.9174200404774E-2</v>
       </c>
-      <c r="J117">
+      <c r="K117">
         <v>9.5584949363361709</v>
       </c>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>16</v>
       </c>
@@ -4175,23 +4611,26 @@
       <c r="E118" t="s">
         <v>10</v>
       </c>
-      <c r="F118">
+      <c r="F118" t="s">
+        <v>43</v>
+      </c>
+      <c r="G118">
         <v>32.307692307692299</v>
       </c>
-      <c r="G118">
+      <c r="H118">
         <v>26.303929988140499</v>
       </c>
-      <c r="H118">
+      <c r="I118">
         <v>21.600220333205801</v>
       </c>
-      <c r="I118">
+      <c r="J118">
         <v>5.0821854518010003E-2</v>
       </c>
-      <c r="J118">
+      <c r="K118">
         <v>6.0461787627293502</v>
       </c>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>16</v>
       </c>
@@ -4207,23 +4646,26 @@
       <c r="E119" t="s">
         <v>11</v>
       </c>
-      <c r="F119">
+      <c r="F119" t="s">
+        <v>43</v>
+      </c>
+      <c r="G119">
         <v>35</v>
       </c>
-      <c r="G119">
+      <c r="H119">
         <v>17.729605771506598</v>
       </c>
-      <c r="H119">
+      <c r="I119">
         <v>17.204340280758299</v>
       </c>
-      <c r="I119">
+      <c r="J119">
         <v>5.0384879112243597E-2</v>
       </c>
-      <c r="J119">
+      <c r="K119">
         <v>10.2887104034423</v>
       </c>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>16</v>
       </c>
@@ -4239,23 +4681,26 @@
       <c r="E120" t="s">
         <v>12</v>
       </c>
-      <c r="F120">
+      <c r="F120" t="s">
+        <v>43</v>
+      </c>
+      <c r="G120">
         <v>38.3333333333333</v>
       </c>
-      <c r="G120">
+      <c r="H120">
         <v>19.885101568538001</v>
       </c>
-      <c r="H120">
+      <c r="I120">
         <v>23.832099283184299</v>
       </c>
-      <c r="I120">
+      <c r="J120">
         <v>5.17093539237976E-2</v>
       </c>
-      <c r="J120">
+      <c r="K120">
         <v>5.9484058618545497</v>
       </c>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>16</v>
       </c>
@@ -4271,23 +4716,26 @@
       <c r="E121" t="s">
         <v>13</v>
       </c>
-      <c r="F121">
+      <c r="F121" t="s">
+        <v>43</v>
+      </c>
+      <c r="G121">
         <v>38.181818181818102</v>
       </c>
-      <c r="G121">
+      <c r="H121">
         <v>19.446013825004201</v>
       </c>
-      <c r="H121">
+      <c r="I121">
         <v>21.310307795855302</v>
       </c>
-      <c r="I121">
+      <c r="J121">
         <v>5.3365772420709702E-2</v>
       </c>
-      <c r="J121">
+      <c r="K121">
         <v>9.6027399193156793</v>
       </c>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>16</v>
       </c>
@@ -4303,23 +4751,26 @@
       <c r="E122" t="s">
         <v>9</v>
       </c>
-      <c r="F122">
+      <c r="F122" t="s">
+        <v>44</v>
+      </c>
+      <c r="G122">
         <v>66.6666666666666</v>
       </c>
-      <c r="G122">
+      <c r="H122">
         <v>1.93196674738938</v>
       </c>
-      <c r="H122">
+      <c r="I122">
         <v>3.7231088470063098</v>
       </c>
-      <c r="I122">
+      <c r="J122">
         <v>3.3507188161214098E-2</v>
       </c>
-      <c r="J122">
+      <c r="K122">
         <v>6.5157918930053702</v>
       </c>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>16</v>
       </c>
@@ -4335,23 +4786,26 @@
       <c r="E123" t="s">
         <v>10</v>
       </c>
-      <c r="F123">
+      <c r="F123" t="s">
+        <v>44</v>
+      </c>
+      <c r="G123">
         <v>77.7777777777777</v>
       </c>
-      <c r="G123">
+      <c r="H123">
         <v>3.50449775112443</v>
       </c>
-      <c r="H123">
+      <c r="I123">
         <v>6.7043108682452903</v>
       </c>
-      <c r="I123">
+      <c r="J123">
         <v>5.9964338938395097E-2</v>
       </c>
-      <c r="J123">
+      <c r="K123">
         <v>4.69525520006815</v>
       </c>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>16</v>
       </c>
@@ -4367,23 +4821,26 @@
       <c r="E124" t="s">
         <v>11</v>
       </c>
-      <c r="F124">
+      <c r="F124" t="s">
+        <v>44</v>
+      </c>
+      <c r="G124">
         <v>100</v>
       </c>
-      <c r="G124">
+      <c r="H124">
         <v>4.6486679778294198</v>
       </c>
-      <c r="H124">
+      <c r="I124">
         <v>8.8286794293378801</v>
       </c>
-      <c r="I124">
+      <c r="J124">
         <v>3.8584629694620703E-2</v>
       </c>
-      <c r="J124">
+      <c r="K124">
         <v>4.6755704879760698</v>
       </c>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>16</v>
       </c>
@@ -4399,23 +4856,26 @@
       <c r="E125" t="s">
         <v>12</v>
       </c>
-      <c r="F125">
+      <c r="F125" t="s">
+        <v>44</v>
+      </c>
+      <c r="G125">
         <v>88.8888888888888</v>
       </c>
-      <c r="G125">
+      <c r="H125">
         <v>3.98057916925841</v>
       </c>
-      <c r="H125">
+      <c r="I125">
         <v>7.5993312539749596</v>
       </c>
-      <c r="I125">
+      <c r="J125">
         <v>3.8383324940999303E-2</v>
       </c>
-      <c r="J125">
+      <c r="K125">
         <v>5.08526515960693</v>
       </c>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>16</v>
       </c>
@@ -4431,23 +4891,26 @@
       <c r="E126" t="s">
         <v>13</v>
       </c>
-      <c r="F126">
+      <c r="F126" t="s">
+        <v>44</v>
+      </c>
+      <c r="G126">
         <v>88.8888888888888</v>
       </c>
-      <c r="G126">
+      <c r="H126">
         <v>5.99623617972241</v>
       </c>
-      <c r="H126">
+      <c r="I126">
         <v>11.028204385202301</v>
       </c>
-      <c r="I126">
+      <c r="J126">
         <v>3.8473288218180302E-2</v>
       </c>
-      <c r="J126">
+      <c r="K126">
         <v>4.6681455771128304</v>
       </c>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>16</v>
       </c>
@@ -4463,23 +4926,26 @@
       <c r="E127" t="s">
         <v>9</v>
       </c>
-      <c r="F127">
+      <c r="F127" t="s">
+        <v>45</v>
+      </c>
+      <c r="G127">
         <v>63.3333333333333</v>
       </c>
-      <c r="G127">
+      <c r="H127">
         <v>7.3578505870433197</v>
       </c>
-      <c r="H127">
+      <c r="I127">
         <v>12.4742920701824</v>
       </c>
-      <c r="I127">
+      <c r="J127">
         <v>5.4539998372395801E-2</v>
       </c>
-      <c r="J127">
+      <c r="K127">
         <v>4.95521970589955</v>
       </c>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>16</v>
       </c>
@@ -4495,23 +4961,26 @@
       <c r="E128" t="s">
         <v>10</v>
       </c>
-      <c r="F128">
+      <c r="F128" t="s">
+        <v>45</v>
+      </c>
+      <c r="G128">
         <v>56</v>
       </c>
-      <c r="G128">
+      <c r="H128">
         <v>6.7338855082262796</v>
       </c>
-      <c r="H128">
+      <c r="I128">
         <v>11.1621055642385</v>
       </c>
-      <c r="I128">
+      <c r="J128">
         <v>5.3993701934814398E-2</v>
       </c>
-      <c r="J128">
+      <c r="K128">
         <v>4.4186743736266996</v>
       </c>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>16</v>
       </c>
@@ -4527,23 +4996,26 @@
       <c r="E129" t="s">
         <v>11</v>
       </c>
-      <c r="F129">
+      <c r="F129" t="s">
+        <v>45</v>
+      </c>
+      <c r="G129">
         <v>50</v>
       </c>
-      <c r="G129">
+      <c r="H129">
         <v>6.11133286448334</v>
       </c>
-      <c r="H129">
+      <c r="I129">
         <v>10.494830265628201</v>
       </c>
-      <c r="I129">
+      <c r="J129">
         <v>4.5515418052673298E-2</v>
       </c>
-      <c r="J129">
+      <c r="K129">
         <v>3.3477016290028798</v>
       </c>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>16</v>
       </c>
@@ -4559,23 +5031,26 @@
       <c r="E130" t="s">
         <v>12</v>
       </c>
-      <c r="F130">
+      <c r="F130" t="s">
+        <v>45</v>
+      </c>
+      <c r="G130">
         <v>63.3333333333333</v>
       </c>
-      <c r="G130">
+      <c r="H130">
         <v>10.385521885521801</v>
       </c>
-      <c r="H130">
+      <c r="I130">
         <v>15.405272476883701</v>
       </c>
-      <c r="I130">
+      <c r="J130">
         <v>4.8341711362202902E-2</v>
       </c>
-      <c r="J130">
+      <c r="K130">
         <v>6.9148337046305297</v>
       </c>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>16</v>
       </c>
@@ -4591,23 +5066,26 @@
       <c r="E131" t="s">
         <v>13</v>
       </c>
-      <c r="F131">
+      <c r="F131" t="s">
+        <v>45</v>
+      </c>
+      <c r="G131">
         <v>52</v>
       </c>
-      <c r="G131">
+      <c r="H131">
         <v>10.577113435345099</v>
       </c>
-      <c r="H131">
+      <c r="I131">
         <v>16.696551768892501</v>
       </c>
-      <c r="I131">
+      <c r="J131">
         <v>5.2306985855102503E-2</v>
       </c>
-      <c r="J131">
+      <c r="K131">
         <v>3.6782403945922799</v>
       </c>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>16</v>
       </c>
@@ -4623,23 +5101,26 @@
       <c r="E132" t="s">
         <v>9</v>
       </c>
-      <c r="F132">
+      <c r="F132" t="s">
+        <v>46</v>
+      </c>
+      <c r="G132">
         <v>32.857142857142797</v>
       </c>
-      <c r="G132">
+      <c r="H132">
         <v>11.243893152558201</v>
       </c>
-      <c r="H132">
+      <c r="I132">
         <v>14.4140516115446</v>
       </c>
-      <c r="I132">
+      <c r="J132">
         <v>4.6182836805071098E-2</v>
       </c>
-      <c r="J132">
+      <c r="K132">
         <v>3.5283847536359501</v>
       </c>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>16</v>
       </c>
@@ -4655,23 +5136,26 @@
       <c r="E133" t="s">
         <v>10</v>
       </c>
-      <c r="F133">
+      <c r="F133" t="s">
+        <v>46</v>
+      </c>
+      <c r="G133">
         <v>46.25</v>
       </c>
-      <c r="G133">
+      <c r="H133">
         <v>17.825207418746398</v>
       </c>
-      <c r="H133">
+      <c r="I133">
         <v>24.580206038603102</v>
       </c>
-      <c r="I133">
+      <c r="J133">
         <v>4.8508495092391898E-2</v>
       </c>
-      <c r="J133">
+      <c r="K133">
         <v>1.9781277775764401</v>
       </c>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>16</v>
       </c>
@@ -4687,23 +5171,26 @@
       <c r="E134" t="s">
         <v>11</v>
       </c>
-      <c r="F134">
+      <c r="F134" t="s">
+        <v>46</v>
+      </c>
+      <c r="G134">
         <v>48.3333333333333</v>
       </c>
-      <c r="G134">
+      <c r="H134">
         <v>13.3002438174851</v>
       </c>
-      <c r="H134">
+      <c r="I134">
         <v>19.9206902743224</v>
       </c>
-      <c r="I134">
+      <c r="J134">
         <v>4.8801541328430099E-2</v>
       </c>
-      <c r="J134">
+      <c r="K134">
         <v>3.60942645867665</v>
       </c>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>16</v>
       </c>
@@ -4719,23 +5206,26 @@
       <c r="E135" t="s">
         <v>12</v>
       </c>
-      <c r="F135">
+      <c r="F135" t="s">
+        <v>46</v>
+      </c>
+      <c r="G135">
         <v>38.571428571428498</v>
       </c>
-      <c r="G135">
+      <c r="H135">
         <v>13.8649804011249</v>
       </c>
-      <c r="H135">
+      <c r="I135">
         <v>14.216259930545601</v>
       </c>
-      <c r="I135">
+      <c r="J135">
         <v>5.6225265775407998E-2</v>
       </c>
-      <c r="J135">
+      <c r="K135">
         <v>6.6184368474142801</v>
       </c>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>16</v>
       </c>
@@ -4751,19 +5241,22 @@
       <c r="E136" t="s">
         <v>13</v>
       </c>
-      <c r="F136">
+      <c r="F136" t="s">
+        <v>46</v>
+      </c>
+      <c r="G136">
         <v>46.25</v>
       </c>
-      <c r="G136">
+      <c r="H136">
         <v>26.2524981951365</v>
       </c>
-      <c r="H136">
+      <c r="I136">
         <v>28.127100647224498</v>
       </c>
-      <c r="I136">
+      <c r="J136">
         <v>4.59643900394439E-2</v>
       </c>
-      <c r="J136">
+      <c r="K136">
         <v>2.3425190746784201</v>
       </c>
     </row>
